--- a/3_output/enrichKEGG_all.xlsx
+++ b/3_output/enrichKEGG_all.xlsx
@@ -17258,13 +17258,13 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.2544993585908107</v>
+        <v>0.2544993585908106</v>
       </c>
       <c r="F128">
-        <v>0.2544993585908107</v>
+        <v>0.2544993585908106</v>
       </c>
       <c r="G128">
-        <v>0.4834650644282671</v>
+        <v>0.4834650644282669</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -17297,13 +17297,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.2544993585908107</v>
+        <v>0.2544993585908106</v>
       </c>
       <c r="F129">
-        <v>0.2544993585908107</v>
+        <v>0.2544993585908106</v>
       </c>
       <c r="G129">
-        <v>0.4834650644282671</v>
+        <v>0.4834650644282669</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>

--- a/3_output/enrichKEGG_all.xlsx
+++ b/3_output/enrichKEGG_all.xlsx
@@ -17258,13 +17258,13 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.2544993585908106</v>
+        <v>0.2544993585908107</v>
       </c>
       <c r="F128">
-        <v>0.2544993585908106</v>
+        <v>0.2544993585908107</v>
       </c>
       <c r="G128">
-        <v>0.4834650644282669</v>
+        <v>0.4834650644282671</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -17297,13 +17297,13 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.2544993585908106</v>
+        <v>0.2544993585908107</v>
       </c>
       <c r="F129">
-        <v>0.2544993585908106</v>
+        <v>0.2544993585908107</v>
       </c>
       <c r="G129">
-        <v>0.4834650644282669</v>
+        <v>0.4834650644282671</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
